--- a/data/processed/documents/APP-000034/assets_liabilities.xlsx
+++ b/data/processed/documents/APP-000034/assets_liabilities.xlsx
@@ -502,7 +502,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Karim Al Qubaisi</t>
+          <t>Karim Al Ketbi</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>6500</v>
+        <v>6385.24</v>
       </c>
     </row>
     <row r="6">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>6015</v>
+        <v>704468</v>
       </c>
     </row>
     <row r="7">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>14786</v>
+        <v>423711</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>-8771</v>
+        <v>280757</v>
       </c>
     </row>
     <row r="9">
@@ -553,7 +553,7 @@
         </is>
       </c>
       <c r="B9" s="5" t="n">
-        <v>0.41</v>
+        <v>1.66</v>
       </c>
     </row>
   </sheetData>
@@ -570,7 +570,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -603,26 +603,56 @@
     <row r="2">
       <c r="A2" s="7" t="inlineStr">
         <is>
+          <t>Vehicles</t>
+        </is>
+      </c>
+      <c r="B2" s="7" t="inlineStr">
+        <is>
+          <t>Luxury Car</t>
+        </is>
+      </c>
+      <c r="C2" s="8" t="n">
+        <v>596199</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="inlineStr">
+        <is>
+          <t>Vehicles</t>
+        </is>
+      </c>
+      <c r="B3" s="7" t="inlineStr">
+        <is>
+          <t>Mid-range Car</t>
+        </is>
+      </c>
+      <c r="C3" s="8" t="n">
+        <v>98572</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
           <t>Liquid Assets</t>
         </is>
       </c>
-      <c r="B2" s="7" t="inlineStr">
+      <c r="B4" s="7" t="inlineStr">
         <is>
           <t>Savings Account</t>
         </is>
       </c>
-      <c r="C2" s="8" t="n">
-        <v>6015</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="9" t="inlineStr">
+      <c r="C4" s="8" t="n">
+        <v>9697</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="9" t="inlineStr">
         <is>
           <t>TOTAL ASSETS</t>
         </is>
       </c>
-      <c r="C3" s="10" t="n">
-        <v>6015</v>
+      <c r="C5" s="10" t="n">
+        <v>704468</v>
       </c>
     </row>
   </sheetData>
@@ -636,7 +666,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -681,32 +711,74 @@
     <row r="2">
       <c r="A2" s="7" t="inlineStr">
         <is>
+          <t>Auto Loans</t>
+        </is>
+      </c>
+      <c r="B2" s="7" t="inlineStr">
+        <is>
+          <t>Vehicle Loan 1</t>
+        </is>
+      </c>
+      <c r="C2" s="8" t="n">
+        <v>357719</v>
+      </c>
+      <c r="D2" s="8" t="n">
+        <v>4968</v>
+      </c>
+      <c r="E2" s="7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="inlineStr">
+        <is>
+          <t>Auto Loans</t>
+        </is>
+      </c>
+      <c r="B3" s="7" t="inlineStr">
+        <is>
+          <t>Vehicle Loan 2</t>
+        </is>
+      </c>
+      <c r="C3" s="8" t="n">
+        <v>59143</v>
+      </c>
+      <c r="D3" s="8" t="n">
+        <v>986</v>
+      </c>
+      <c r="E3" s="7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
           <t>Credit Cards</t>
         </is>
       </c>
-      <c r="B2" s="7" t="inlineStr">
+      <c r="B4" s="7" t="inlineStr">
         <is>
           <t>Credit Card Balance</t>
         </is>
       </c>
-      <c r="C2" s="8" t="n">
-        <v>14786</v>
-      </c>
-      <c r="D2" s="8" t="n">
-        <v>739</v>
-      </c>
-      <c r="E2" s="7" t="n">
+      <c r="C4" s="8" t="n">
+        <v>6849</v>
+      </c>
+      <c r="D4" s="8" t="n">
+        <v>342</v>
+      </c>
+      <c r="E4" s="7" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="9" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="9" t="inlineStr">
         <is>
           <t>TOTAL LIABILITIES</t>
         </is>
       </c>
-      <c r="C3" s="12" t="n">
-        <v>14786</v>
+      <c r="C5" s="12" t="n">
+        <v>423711</v>
       </c>
     </row>
   </sheetData>
